--- a/natmiOut/OldD4/LR-pairs_lrc2p/F2-F2r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H2">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I2">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J2">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.23734222410187</v>
+        <v>8.275247666666667</v>
       </c>
       <c r="N2">
-        <v>7.23734222410187</v>
+        <v>24.825743</v>
       </c>
       <c r="O2">
-        <v>0.09751719130580477</v>
+        <v>0.1035475654300768</v>
       </c>
       <c r="P2">
-        <v>0.09751719130580477</v>
+        <v>0.1152196269592993</v>
       </c>
       <c r="Q2">
-        <v>4.197077159393209</v>
+        <v>7.813966052815445</v>
       </c>
       <c r="R2">
-        <v>4.197077159393209</v>
+        <v>70.32569447533899</v>
       </c>
       <c r="S2">
-        <v>0.03464666949348953</v>
+        <v>0.04269471630340482</v>
       </c>
       <c r="T2">
-        <v>0.03464666949348953</v>
+        <v>0.05075848195635383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H3">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I3">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J3">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.4847453452188</v>
+        <v>47.354572</v>
       </c>
       <c r="N3">
-        <v>45.4847453452188</v>
+        <v>142.063716</v>
       </c>
       <c r="O3">
-        <v>0.6128692655370391</v>
+        <v>0.5925442766305059</v>
       </c>
       <c r="P3">
-        <v>0.6128692655370391</v>
+        <v>0.6593368972671567</v>
       </c>
       <c r="Q3">
-        <v>26.37749879416885</v>
+        <v>44.71491766271866</v>
       </c>
       <c r="R3">
-        <v>26.37749879416885</v>
+        <v>402.434258964468</v>
       </c>
       <c r="S3">
-        <v>0.2177449801562887</v>
+        <v>0.2443177652982016</v>
       </c>
       <c r="T3">
-        <v>0.2177449801562887</v>
+        <v>0.2904621450902224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H4">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I4">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J4">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4939775899623</v>
+        <v>24.2875365</v>
       </c>
       <c r="N4">
-        <v>21.4939775899623</v>
+        <v>48.575073</v>
       </c>
       <c r="O4">
-        <v>0.2896135431571559</v>
+        <v>0.3039081579394173</v>
       </c>
       <c r="P4">
-        <v>0.2896135431571559</v>
+        <v>0.225443475773544</v>
       </c>
       <c r="Q4">
-        <v>12.46478052494405</v>
+        <v>22.9336925445715</v>
       </c>
       <c r="R4">
-        <v>12.46478052494405</v>
+        <v>137.602155267429</v>
       </c>
       <c r="S4">
-        <v>0.1028961619612106</v>
+        <v>0.1253073650898693</v>
       </c>
       <c r="T4">
-        <v>0.1028961619612106</v>
+        <v>0.09931613996000321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H5">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I5">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J5">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.23734222410187</v>
+        <v>8.275247666666667</v>
       </c>
       <c r="N5">
-        <v>7.23734222410187</v>
+        <v>24.825743</v>
       </c>
       <c r="O5">
-        <v>0.09751719130580477</v>
+        <v>0.1035475654300768</v>
       </c>
       <c r="P5">
-        <v>0.09751719130580477</v>
+        <v>0.1152196269592993</v>
       </c>
       <c r="Q5">
-        <v>4.781488126252153</v>
+        <v>5.650328073136444</v>
       </c>
       <c r="R5">
-        <v>4.781488126252153</v>
+        <v>50.852952658228</v>
       </c>
       <c r="S5">
-        <v>0.03947095383427584</v>
+        <v>0.03087281829395763</v>
       </c>
       <c r="T5">
-        <v>0.03947095383427584</v>
+        <v>0.03670377803144387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H6">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I6">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J6">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.4847453452188</v>
+        <v>47.354572</v>
       </c>
       <c r="N6">
-        <v>45.4847453452188</v>
+        <v>142.063716</v>
       </c>
       <c r="O6">
-        <v>0.6128692655370391</v>
+        <v>0.5925442766305059</v>
       </c>
       <c r="P6">
-        <v>0.6128692655370391</v>
+        <v>0.6593368972671567</v>
       </c>
       <c r="Q6">
-        <v>30.05036421650708</v>
+        <v>32.33363862217067</v>
       </c>
       <c r="R6">
-        <v>30.05036421650708</v>
+        <v>291.002747599536</v>
       </c>
       <c r="S6">
-        <v>0.2480643070471519</v>
+        <v>0.1766677150501558</v>
       </c>
       <c r="T6">
-        <v>0.2480643070471519</v>
+        <v>0.2100350067422385</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H7">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I7">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J7">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4939775899623</v>
+        <v>24.2875365</v>
       </c>
       <c r="N7">
-        <v>21.4939775899623</v>
+        <v>48.575073</v>
       </c>
       <c r="O7">
-        <v>0.2896135431571559</v>
+        <v>0.3039081579394173</v>
       </c>
       <c r="P7">
-        <v>0.2896135431571559</v>
+        <v>0.225443475773544</v>
       </c>
       <c r="Q7">
-        <v>14.20040609522074</v>
+        <v>16.583497538818</v>
       </c>
       <c r="R7">
-        <v>14.20040609522074</v>
+        <v>99.50098523290799</v>
       </c>
       <c r="S7">
-        <v>0.1172236673212787</v>
+        <v>0.09061054501035841</v>
       </c>
       <c r="T7">
-        <v>0.1172236673212787</v>
+        <v>0.07181612639964823</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -903,49 +909,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.39166448274001</v>
+        <v>0.073199</v>
       </c>
       <c r="H8">
-        <v>0.39166448274001</v>
+        <v>0.219597</v>
       </c>
       <c r="I8">
-        <v>0.2399532601863045</v>
+        <v>0.03196309812819736</v>
       </c>
       <c r="J8">
-        <v>0.2399532601863045</v>
+        <v>0.03415047814432848</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.23734222410187</v>
+        <v>8.275247666666667</v>
       </c>
       <c r="N8">
-        <v>7.23734222410187</v>
+        <v>24.825743</v>
       </c>
       <c r="O8">
-        <v>0.09751719130580477</v>
+        <v>0.1035475654300768</v>
       </c>
       <c r="P8">
-        <v>0.09751719130580477</v>
+        <v>0.1152196269592993</v>
       </c>
       <c r="Q8">
-        <v>2.834609898615292</v>
+        <v>0.6057398539523333</v>
       </c>
       <c r="R8">
-        <v>2.834609898615292</v>
+        <v>5.451658685570999</v>
       </c>
       <c r="S8">
-        <v>0.0233995679780394</v>
+        <v>0.003309700994777481</v>
       </c>
       <c r="T8">
-        <v>0.0233995679780394</v>
+        <v>0.003934805352271231</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -965,49 +971,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.39166448274001</v>
+        <v>0.073199</v>
       </c>
       <c r="H9">
-        <v>0.39166448274001</v>
+        <v>0.219597</v>
       </c>
       <c r="I9">
-        <v>0.2399532601863045</v>
+        <v>0.03196309812819736</v>
       </c>
       <c r="J9">
-        <v>0.2399532601863045</v>
+        <v>0.03415047814432848</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.4847453452188</v>
+        <v>47.354572</v>
       </c>
       <c r="N9">
-        <v>45.4847453452188</v>
+        <v>142.063716</v>
       </c>
       <c r="O9">
-        <v>0.6128692655370391</v>
+        <v>0.5925442766305059</v>
       </c>
       <c r="P9">
-        <v>0.6128692655370391</v>
+        <v>0.6593368972671567</v>
       </c>
       <c r="Q9">
-        <v>17.8147592581962</v>
+        <v>3.466307315828</v>
       </c>
       <c r="R9">
-        <v>17.8147592581962</v>
+        <v>31.196765842452</v>
       </c>
       <c r="S9">
-        <v>0.1470599783335985</v>
+        <v>0.01893955085924258</v>
       </c>
       <c r="T9">
-        <v>0.1470599783335985</v>
+        <v>0.02251667029987139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,433 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.073199</v>
+      </c>
+      <c r="H10">
+        <v>0.219597</v>
+      </c>
+      <c r="I10">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J10">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>24.2875365</v>
+      </c>
+      <c r="N10">
+        <v>48.575073</v>
+      </c>
+      <c r="O10">
+        <v>0.3039081579394173</v>
+      </c>
+      <c r="P10">
+        <v>0.225443475773544</v>
+      </c>
+      <c r="Q10">
+        <v>1.7778233842635</v>
+      </c>
+      <c r="R10">
+        <v>10.666940305581</v>
+      </c>
+      <c r="S10">
+        <v>0.009713846274177295</v>
+      </c>
+      <c r="T10">
+        <v>0.007699002492185863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.449404</v>
+      </c>
+      <c r="I11">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J11">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.275247666666667</v>
+      </c>
+      <c r="N11">
+        <v>24.825743</v>
+      </c>
+      <c r="O11">
+        <v>0.1035475654300768</v>
+      </c>
+      <c r="P11">
+        <v>0.1152196269592993</v>
+      </c>
+      <c r="Q11">
+        <v>1.239643134130222</v>
+      </c>
+      <c r="R11">
+        <v>11.156788207172</v>
+      </c>
+      <c r="S11">
+        <v>0.006773284087929156</v>
+      </c>
+      <c r="T11">
+        <v>0.008052556567403472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.449404</v>
+      </c>
+      <c r="I12">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J12">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>47.354572</v>
+      </c>
+      <c r="N12">
+        <v>142.063716</v>
+      </c>
+      <c r="O12">
+        <v>0.5925442766305059</v>
+      </c>
+      <c r="P12">
+        <v>0.6593368972671567</v>
+      </c>
+      <c r="Q12">
+        <v>7.093778025029334</v>
+      </c>
+      <c r="R12">
+        <v>63.84400222526401</v>
+      </c>
+      <c r="S12">
+        <v>0.03875968211927782</v>
+      </c>
+      <c r="T12">
+        <v>0.04608023652164375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="H10">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="I10">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="J10">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>21.4939775899623</v>
-      </c>
-      <c r="N10">
-        <v>21.4939775899623</v>
-      </c>
-      <c r="O10">
-        <v>0.2896135431571559</v>
-      </c>
-      <c r="P10">
-        <v>0.2896135431571559</v>
-      </c>
-      <c r="Q10">
-        <v>8.418427614797951</v>
-      </c>
-      <c r="R10">
-        <v>8.418427614797951</v>
-      </c>
-      <c r="S10">
-        <v>0.06949371387466656</v>
-      </c>
-      <c r="T10">
-        <v>0.06949371387466656</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.449404</v>
+      </c>
+      <c r="I13">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J13">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>24.2875365</v>
+      </c>
+      <c r="N13">
+        <v>48.575073</v>
+      </c>
+      <c r="O13">
+        <v>0.3039081579394173</v>
+      </c>
+      <c r="P13">
+        <v>0.225443475773544</v>
+      </c>
+      <c r="Q13">
+        <v>3.638305351082</v>
+      </c>
+      <c r="R13">
+        <v>21.829832106492</v>
+      </c>
+      <c r="S13">
+        <v>0.01987933064204143</v>
+      </c>
+      <c r="T13">
+        <v>0.01575596440752057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.440053</v>
+      </c>
+      <c r="H14">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J14">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.275247666666667</v>
+      </c>
+      <c r="N14">
+        <v>24.825743</v>
+      </c>
+      <c r="O14">
+        <v>0.1035475654300768</v>
+      </c>
+      <c r="P14">
+        <v>0.1152196269592993</v>
+      </c>
+      <c r="Q14">
+        <v>3.641547561459666</v>
+      </c>
+      <c r="R14">
+        <v>21.849285368758</v>
+      </c>
+      <c r="S14">
+        <v>0.01989704575000771</v>
+      </c>
+      <c r="T14">
+        <v>0.01577000505182687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.440053</v>
+      </c>
+      <c r="H15">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J15">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>47.354572</v>
+      </c>
+      <c r="N15">
+        <v>142.063716</v>
+      </c>
+      <c r="O15">
+        <v>0.5925442766305059</v>
+      </c>
+      <c r="P15">
+        <v>0.6593368972671567</v>
+      </c>
+      <c r="Q15">
+        <v>20.838521472316</v>
+      </c>
+      <c r="R15">
+        <v>125.031128833896</v>
+      </c>
+      <c r="S15">
+        <v>0.1138595633036281</v>
+      </c>
+      <c r="T15">
+        <v>0.09024283861318055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.440053</v>
+      </c>
+      <c r="H16">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J16">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>24.2875365</v>
+      </c>
+      <c r="N16">
+        <v>48.575073</v>
+      </c>
+      <c r="O16">
+        <v>0.3039081579394173</v>
+      </c>
+      <c r="P16">
+        <v>0.225443475773544</v>
+      </c>
+      <c r="Q16">
+        <v>10.6878032994345</v>
+      </c>
+      <c r="R16">
+        <v>42.751213197738</v>
+      </c>
+      <c r="S16">
+        <v>0.05839707092297082</v>
+      </c>
+      <c r="T16">
+        <v>0.03085624251418613</v>
       </c>
     </row>
   </sheetData>
